--- a/xlsx/项目管理_intext.xlsx
+++ b/xlsx/项目管理_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E6%99%AE%E5%B0%BC%E5%85%8B%E5%8D%B1%E6%A9%9F</t>
   </si>
   <si>
-    <t>史普尼克危機</t>
+    <t>史普尼克危机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E8%AF%84%E4%BC%B0%E5%92%8C%E5%AE%A1%E6%9F%A5%E6%8A%80%E6%9C%AF</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%A5%B5%E6%98%9F%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>北極星飛彈</t>
+    <t>北极星飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B3%E9%94%AE%E8%B7%AF%E5%BE%84%E6%96%B9%E6%B3%95</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%90%E5%88%B6%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>限制理論</t>
+    <t>限制理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9E%E5%90%90%E9%87%8F</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E5%AD%A6</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF%E5%AD%B8</t>
   </si>
   <si>
-    <t>公共行政學</t>
+    <t>公共行政学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5%E7%AE%A1%E7%90%86</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%87%89%E8%AE%8A%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>應變管理</t>
+    <t>应变管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Communications_management</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>績效管理</t>
+    <t>绩效管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%8E%E9%99%A9%E7%AE%A1%E7%90%86</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E5%BB%BA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>營建管理</t>
+    <t>营建管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Line_management</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Operations_management</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%81%E8%B3%AA%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>品質管理</t>
+    <t>品质管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Sales_management</t>
@@ -437,13 +437,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E6%A9%9F%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>危機管理</t>
+    <t>危机管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>壓力管理</t>
+    <t>压力管理</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Resource_management</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%92%B0%E5%A2%83%E8%B3%87%E6%BA%90%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>環境資源管理</t>
+    <t>环境资源管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E7%AE%A1%E7%90%86</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E6%B4%BE%E9%81%A3</t>
   </si>
   <si>
-    <t>專家派遣</t>
+    <t>专家派遣</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E9%83%A8</t>
@@ -533,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E9%9A%8E%E7%AE%A1%E7%90%86%E4%BA%BA%E5%93%A1</t>
   </si>
   <si>
-    <t>高階管理人員</t>
+    <t>高阶管理人员</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adhocracy</t>
@@ -563,25 +563,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E9%A2%A8%E6%A0%BC</t>
   </si>
   <si>
-    <t>管理風格</t>
+    <t>管理风格</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>宏觀管理</t>
+    <t>宏观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%A7%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>微觀管理</t>
+    <t>微观管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%AD%A6%E7%AE%A1%E7%90%86</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E6%96%B7</t>
   </si>
   <si>
-    <t>決斷</t>
+    <t>决断</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B3%E7%AD%96</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%98%E5%B0%8E%E5%8A%9B</t>
   </si>
   <si>
-    <t>領導力</t>
+    <t>领导力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%BC%E5%BE%97%C2%B7%E5%BE%B7%E9%B2%81%E5%85%8B</t>
@@ -659,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E5%AD%B8%E5%AD%B8%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理學學士</t>
+    <t>工商管理学学士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%95%86%E7%AE%A1%E7%90%86%E7%A2%A9%E5%A3%AB</t>
   </si>
   <si>
-    <t>工商管理碩士</t>
+    <t>工商管理硕士</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/PhD_in_management</t>
@@ -725,13 +725,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>管理主義</t>
+    <t>管理主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94%E7%99%BC%E5%B1%95%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>組織發展理論</t>
+    <t>组织发展理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
